--- a/Post/Index/Lampiran/Preprocessing/Missing Data/Detected Missing Data.xlsx
+++ b/Post/Index/Lampiran/Preprocessing/Missing Data/Detected Missing Data.xlsx
@@ -434,16 +434,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>missing data</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Air Temperature</t>
+          <t>airTemperature</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -453,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -463,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Nutrient Fluid Temperature</t>
+          <t>waterTemperature</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -483,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TDS</t>
+          <t>tds</t>
         </is>
       </c>
       <c r="B6" t="n">
